--- a/3_Results/34_ResultsART/art_individual_unadjusted.xlsx
+++ b/3_Results/34_ResultsART/art_individual_unadjusted.xlsx
@@ -553,28 +553,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.099</v>
+        <v>-0.1</v>
       </c>
       <c r="E2">
-        <v>-0.572</v>
+        <v>-0.57</v>
       </c>
       <c r="F2">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="G2">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,35 +584,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>-0.099</v>
+        <v>-0.1</v>
       </c>
       <c r="E3">
-        <v>-0.572</v>
+        <v>-0.77</v>
       </c>
       <c r="F3">
-        <v>0.375</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G3">
-        <v>0.6820000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="H3">
-        <v>0.058</v>
+        <v>0.11</v>
       </c>
       <c r="I3">
-        <v>0.242</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,29 +619,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>-0.097</v>
-      </c>
-      <c r="E4">
-        <v>-0.523</v>
-      </c>
-      <c r="F4">
-        <v>0.329</v>
-      </c>
-      <c r="G4">
-        <v>0.656</v>
-      </c>
-      <c r="H4">
-        <v>0.047</v>
-      </c>
-      <c r="I4">
-        <v>0.218</v>
-      </c>
-      <c r="J4">
-        <v>-0.001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
@@ -660,32 +639,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.102</v>
+        <v>-0.2</v>
       </c>
       <c r="E5">
-        <v>-0.765</v>
+        <v>-0.67</v>
       </c>
       <c r="F5">
-        <v>0.5610000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G5">
-        <v>0.763</v>
+        <v>0.4</v>
       </c>
       <c r="H5">
-        <v>0.114</v>
+        <v>0.06</v>
       </c>
       <c r="I5">
-        <v>0.338</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -695,32 +674,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>-0.102</v>
+        <v>0.51</v>
       </c>
       <c r="E6">
-        <v>-0.768</v>
+        <v>-2.09</v>
       </c>
       <c r="F6">
-        <v>0.5639999999999999</v>
+        <v>3.11</v>
       </c>
       <c r="G6">
-        <v>0.764</v>
+        <v>0.35</v>
       </c>
       <c r="H6">
-        <v>0.115</v>
+        <v>1.76</v>
       </c>
       <c r="I6">
-        <v>0.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -730,32 +709,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>-0.104</v>
-      </c>
-      <c r="E7">
-        <v>-0.716</v>
-      </c>
-      <c r="F7">
-        <v>0.507</v>
-      </c>
-      <c r="G7">
-        <v>0.738</v>
-      </c>
-      <c r="H7">
-        <v>0.097</v>
-      </c>
-      <c r="I7">
-        <v>0.312</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -765,11 +729,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>-0.102</v>
+        <v>-0.1</v>
+      </c>
+      <c r="E8">
+        <v>-0.57</v>
+      </c>
+      <c r="F8">
+        <v>0.37</v>
+      </c>
+      <c r="G8">
+        <v>0.68</v>
+      </c>
+      <c r="H8">
+        <v>0.06</v>
+      </c>
+      <c r="I8">
+        <v>0.24</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -785,17 +767,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.102</v>
+        <v>-0.1</v>
+      </c>
+      <c r="E9">
+        <v>-0.77</v>
+      </c>
+      <c r="F9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.76</v>
+      </c>
+      <c r="H9">
+        <v>0.12</v>
+      </c>
+      <c r="I9">
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,13 +806,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.104</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -829,22 +826,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.201</v>
+        <v>-0.2</v>
       </c>
       <c r="E11">
-        <v>-0.669</v>
+        <v>-0.67</v>
       </c>
       <c r="F11">
-        <v>0.267</v>
+        <v>0.27</v>
       </c>
       <c r="G11">
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I11">
-        <v>0.239</v>
+        <v>0.24</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -860,35 +860,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.201</v>
+        <v>0.51</v>
       </c>
       <c r="E12">
-        <v>-0.669</v>
+        <v>-2.11</v>
       </c>
       <c r="F12">
-        <v>0.267</v>
+        <v>3.13</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H12">
-        <v>0.057</v>
+        <v>1.78</v>
       </c>
       <c r="I12">
-        <v>0.239</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -898,35 +895,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>-0.201</v>
-      </c>
-      <c r="E13">
-        <v>-0.64</v>
-      </c>
-      <c r="F13">
-        <v>0.238</v>
-      </c>
-      <c r="G13">
-        <v>0.369</v>
-      </c>
-      <c r="H13">
-        <v>0.05</v>
-      </c>
-      <c r="I13">
-        <v>0.224</v>
-      </c>
-      <c r="J13">
-        <v>-0.001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -936,32 +915,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.508</v>
+        <v>-0.1</v>
       </c>
       <c r="E14">
-        <v>-2.092</v>
+        <v>-0.52</v>
       </c>
       <c r="F14">
-        <v>3.109</v>
+        <v>0.33</v>
       </c>
       <c r="G14">
-        <v>0.351</v>
+        <v>0.66</v>
       </c>
       <c r="H14">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>1.327</v>
+        <v>0.22</v>
+      </c>
+      <c r="J14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -971,26 +953,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.508</v>
+        <v>-0.1</v>
       </c>
       <c r="E15">
-        <v>-2.11</v>
+        <v>-0.72</v>
       </c>
       <c r="F15">
-        <v>3.127</v>
+        <v>0.51</v>
       </c>
       <c r="G15">
-        <v>0.352</v>
+        <v>0.74</v>
       </c>
       <c r="H15">
-        <v>1.785</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
-        <v>1.336</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
@@ -1006,32 +988,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.519</v>
-      </c>
-      <c r="E16">
-        <v>-1.848</v>
-      </c>
-      <c r="F16">
-        <v>2.886</v>
-      </c>
-      <c r="G16">
-        <v>0.334</v>
-      </c>
-      <c r="H16">
-        <v>1.458</v>
-      </c>
-      <c r="I16">
-        <v>1.208</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1041,17 +1008,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.508</v>
+        <v>-0.2</v>
+      </c>
+      <c r="E17">
+        <v>-0.64</v>
+      </c>
+      <c r="F17">
+        <v>0.24</v>
+      </c>
+      <c r="G17">
+        <v>0.37</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>0.22</v>
+      </c>
+      <c r="J17">
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1061,11 +1046,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.508</v>
+        <v>0.52</v>
+      </c>
+      <c r="E18">
+        <v>-1.85</v>
+      </c>
+      <c r="F18">
+        <v>2.89</v>
+      </c>
+      <c r="G18">
+        <v>0.33</v>
+      </c>
+      <c r="H18">
+        <v>1.46</v>
+      </c>
+      <c r="I18">
+        <v>1.21</v>
       </c>
     </row>
     <row r="19">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.518</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1170,28 +1170,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.906</v>
+        <v>0.91</v>
       </c>
       <c r="E2">
-        <v>0.5639999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2">
-        <v>1.455</v>
+        <v>1.45</v>
       </c>
       <c r="G2">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1201,35 +1201,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.906</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0.5639999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="F3">
-        <v>1.455</v>
+        <v>1.75</v>
       </c>
       <c r="G3">
-        <v>0.6820000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="H3">
-        <v>0.058</v>
+        <v>0.11</v>
       </c>
       <c r="I3">
-        <v>0.242</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1239,29 +1236,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.908</v>
-      </c>
-      <c r="E4">
-        <v>0.593</v>
-      </c>
-      <c r="F4">
-        <v>1.39</v>
-      </c>
-      <c r="G4">
-        <v>0.656</v>
-      </c>
-      <c r="H4">
-        <v>0.047</v>
-      </c>
-      <c r="I4">
-        <v>0.218</v>
-      </c>
-      <c r="J4">
-        <v>-0.001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -1277,32 +1256,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.903</v>
+        <v>0.82</v>
       </c>
       <c r="E5">
-        <v>0.465</v>
+        <v>0.51</v>
       </c>
       <c r="F5">
-        <v>1.752</v>
+        <v>1.31</v>
       </c>
       <c r="G5">
-        <v>0.763</v>
+        <v>0.4</v>
       </c>
       <c r="H5">
-        <v>0.114</v>
+        <v>0.06</v>
       </c>
       <c r="I5">
-        <v>0.338</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1312,32 +1291,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.903</v>
+        <v>0.51</v>
       </c>
       <c r="E6">
-        <v>0.464</v>
+        <v>-2.09</v>
       </c>
       <c r="F6">
-        <v>1.757</v>
+        <v>3.11</v>
       </c>
       <c r="G6">
-        <v>0.764</v>
+        <v>0.35</v>
       </c>
       <c r="H6">
-        <v>0.115</v>
+        <v>1.76</v>
       </c>
       <c r="I6">
-        <v>0.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1347,32 +1326,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.901</v>
-      </c>
-      <c r="E7">
-        <v>0.489</v>
-      </c>
-      <c r="F7">
-        <v>1.661</v>
-      </c>
-      <c r="G7">
-        <v>0.738</v>
-      </c>
-      <c r="H7">
-        <v>0.097</v>
-      </c>
-      <c r="I7">
-        <v>0.312</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1382,11 +1346,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.903</v>
+        <v>0.91</v>
+      </c>
+      <c r="E8">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.45</v>
+      </c>
+      <c r="G8">
+        <v>0.68</v>
+      </c>
+      <c r="H8">
+        <v>0.06</v>
+      </c>
+      <c r="I8">
+        <v>0.24</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1402,17 +1384,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.903</v>
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.46</v>
+      </c>
+      <c r="F9">
+        <v>1.76</v>
+      </c>
+      <c r="G9">
+        <v>0.76</v>
+      </c>
+      <c r="H9">
+        <v>0.12</v>
+      </c>
+      <c r="I9">
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1426,13 +1423,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.901</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1446,22 +1443,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E11">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
       <c r="F11">
-        <v>1.306</v>
+        <v>1.31</v>
       </c>
       <c r="G11">
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I11">
-        <v>0.239</v>
+        <v>0.24</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1477,35 +1477,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.8179999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E12">
-        <v>0.512</v>
+        <v>-2.11</v>
       </c>
       <c r="F12">
-        <v>1.306</v>
+        <v>3.13</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H12">
-        <v>0.057</v>
+        <v>1.78</v>
       </c>
       <c r="I12">
-        <v>0.239</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1515,35 +1512,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.527</v>
-      </c>
-      <c r="F13">
-        <v>1.268</v>
-      </c>
-      <c r="G13">
-        <v>0.369</v>
-      </c>
-      <c r="H13">
-        <v>0.05</v>
-      </c>
-      <c r="I13">
-        <v>0.224</v>
-      </c>
-      <c r="J13">
-        <v>-0.001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1553,32 +1532,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.508</v>
+        <v>0.91</v>
       </c>
       <c r="E14">
-        <v>-2.092</v>
+        <v>0.59</v>
       </c>
       <c r="F14">
-        <v>3.109</v>
+        <v>1.39</v>
       </c>
       <c r="G14">
-        <v>0.351</v>
+        <v>0.66</v>
       </c>
       <c r="H14">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>1.327</v>
+        <v>0.22</v>
+      </c>
+      <c r="J14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1588,26 +1570,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.508</v>
+        <v>0.9</v>
       </c>
       <c r="E15">
-        <v>-2.11</v>
+        <v>0.49</v>
       </c>
       <c r="F15">
-        <v>3.127</v>
+        <v>1.66</v>
       </c>
       <c r="G15">
-        <v>0.352</v>
+        <v>0.74</v>
       </c>
       <c r="H15">
-        <v>1.785</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
-        <v>1.336</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
@@ -1623,32 +1605,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.519</v>
-      </c>
-      <c r="E16">
-        <v>-1.848</v>
-      </c>
-      <c r="F16">
-        <v>2.886</v>
-      </c>
-      <c r="G16">
-        <v>0.334</v>
-      </c>
-      <c r="H16">
-        <v>1.458</v>
-      </c>
-      <c r="I16">
-        <v>1.208</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1658,17 +1625,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.508</v>
+        <v>0.82</v>
+      </c>
+      <c r="E17">
+        <v>0.53</v>
+      </c>
+      <c r="F17">
+        <v>1.27</v>
+      </c>
+      <c r="G17">
+        <v>0.37</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>0.22</v>
+      </c>
+      <c r="J17">
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1678,11 +1663,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.508</v>
+        <v>0.52</v>
+      </c>
+      <c r="E18">
+        <v>-1.85</v>
+      </c>
+      <c r="F18">
+        <v>2.89</v>
+      </c>
+      <c r="G18">
+        <v>0.33</v>
+      </c>
+      <c r="H18">
+        <v>1.46</v>
+      </c>
+      <c r="I18">
+        <v>1.21</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.518</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1787,22 +1787,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.201</v>
+        <v>-0.2</v>
       </c>
       <c r="E2">
-        <v>-0.669</v>
+        <v>-0.67</v>
       </c>
       <c r="F2">
-        <v>0.267</v>
+        <v>0.27</v>
       </c>
       <c r="G2">
         <v>0.4</v>
       </c>
       <c r="H2">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.201</v>
+        <v>-0.2</v>
       </c>
       <c r="E3">
-        <v>-0.669</v>
+        <v>-0.67</v>
       </c>
       <c r="F3">
-        <v>0.267</v>
+        <v>0.27</v>
       </c>
       <c r="G3">
         <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1860,25 +1860,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.201</v>
+        <v>-0.2</v>
       </c>
       <c r="E4">
         <v>-0.64</v>
       </c>
       <c r="F4">
-        <v>0.238</v>
+        <v>0.24</v>
       </c>
       <c r="G4">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="H4">
         <v>0.05</v>
       </c>
       <c r="I4">
-        <v>0.224</v>
+        <v>0.22</v>
       </c>
       <c r="J4">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -1963,22 +1963,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E2">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
       <c r="F2">
-        <v>1.306</v>
+        <v>1.31</v>
       </c>
       <c r="G2">
         <v>0.4</v>
       </c>
       <c r="H2">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -1998,22 +1998,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E3">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
       <c r="F3">
-        <v>1.306</v>
+        <v>1.31</v>
       </c>
       <c r="G3">
         <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2036,25 +2036,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E4">
-        <v>0.527</v>
+        <v>0.53</v>
       </c>
       <c r="F4">
-        <v>1.268</v>
+        <v>1.27</v>
       </c>
       <c r="G4">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="H4">
         <v>0.05</v>
       </c>
       <c r="I4">
-        <v>0.224</v>
+        <v>0.22</v>
       </c>
       <c r="J4">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.099</v>
+        <v>-0.1</v>
       </c>
       <c r="E2">
-        <v>-0.572</v>
+        <v>-0.57</v>
       </c>
       <c r="F2">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="G2">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-1.493</v>
+        <v>-1.49</v>
       </c>
       <c r="E3">
-        <v>-2.027</v>
+        <v>-2.03</v>
       </c>
       <c r="F3">
         <v>-0.96</v>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -2209,22 +2209,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.099</v>
+        <v>-0.1</v>
       </c>
       <c r="E4">
-        <v>-0.572</v>
+        <v>-0.57</v>
       </c>
       <c r="F4">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="G4">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H4">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I4">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-1.493</v>
+        <v>-1.49</v>
       </c>
       <c r="E5">
-        <v>-2.027</v>
+        <v>-2.03</v>
       </c>
       <c r="F5">
         <v>-0.96</v>
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2285,25 +2285,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.097</v>
+        <v>-0.1</v>
       </c>
       <c r="E6">
-        <v>-0.523</v>
+        <v>-0.52</v>
       </c>
       <c r="F6">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="G6">
-        <v>0.656</v>
+        <v>0.66</v>
       </c>
       <c r="H6">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="I6">
-        <v>0.218</v>
+        <v>0.22</v>
       </c>
       <c r="J6">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -2323,25 +2323,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>-1.493</v>
+        <v>-1.49</v>
       </c>
       <c r="E7">
-        <v>-1.984</v>
+        <v>-1.98</v>
       </c>
       <c r="F7">
-        <v>-1.002</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="I7">
         <v>0.25</v>
       </c>
       <c r="J7">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -2426,22 +2426,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.906</v>
+        <v>0.91</v>
       </c>
       <c r="E2">
-        <v>0.5639999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2">
-        <v>1.455</v>
+        <v>1.45</v>
       </c>
       <c r="G2">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -2461,22 +2461,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="F3">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.906</v>
+        <v>0.91</v>
       </c>
       <c r="E4">
-        <v>0.5639999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F4">
-        <v>1.455</v>
+        <v>1.45</v>
       </c>
       <c r="G4">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H4">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I4">
-        <v>0.242</v>
+        <v>0.24</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="E5">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="F5">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2572,25 +2572,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.908</v>
+        <v>0.91</v>
       </c>
       <c r="E6">
-        <v>0.593</v>
+        <v>0.59</v>
       </c>
       <c r="F6">
         <v>1.39</v>
       </c>
       <c r="G6">
-        <v>0.656</v>
+        <v>0.66</v>
       </c>
       <c r="H6">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="I6">
-        <v>0.218</v>
+        <v>0.22</v>
       </c>
       <c r="J6">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -2610,25 +2610,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="E7">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="F7">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="I7">
         <v>0.25</v>
       </c>
       <c r="J7">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
